--- a/populacao_df_ra.xlsx
+++ b/populacao_df_ra.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hernany Castro\OneDrive\Área de Trabalho\ajuste_dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hernany Castro\OneDrive\Área de Trabalho\CREAS\creas_r\gith_transito\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF54F0B3-090D-40E9-89E6-9072F4144A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AEDDF9-D7AC-4B4C-94BF-8149225D120A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{8B5ECDDA-4E16-43F0-9F1A-31459077E087}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>ra</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>VARJAO</t>
+  </si>
+  <si>
+    <t>ano</t>
   </si>
 </sst>
 </file>
@@ -550,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB891E8-1168-458E-9398-79282FD529A9}">
-  <dimension ref="B2:C35"/>
+  <dimension ref="A2:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,7 +565,10 @@
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,7 +576,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2023</v>
+      </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -578,7 +587,10 @@
         <v>12886</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2023</v>
+      </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
@@ -586,7 +598,10 @@
         <v>42320</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2023</v>
+      </c>
       <c r="B5" t="s">
         <v>31</v>
       </c>
@@ -594,7 +609,10 @@
         <v>55561</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2023</v>
+      </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -602,7 +620,10 @@
         <v>198697</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2023</v>
+      </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
@@ -610,7 +631,10 @@
         <v>14040</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2023</v>
+      </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
@@ -618,7 +642,10 @@
         <v>287023</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2023</v>
+      </c>
       <c r="B9" t="s">
         <v>21</v>
       </c>
@@ -626,7 +653,10 @@
         <v>25741</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2023</v>
+      </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
@@ -634,7 +664,10 @@
         <v>10268</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2023</v>
+      </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
@@ -642,7 +675,10 @@
         <v>139467</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2023</v>
+      </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
@@ -650,7 +686,10 @@
         <v>120641</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2023</v>
+      </c>
       <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
@@ -658,7 +697,10 @@
         <v>65408</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2023</v>
+      </c>
       <c r="B14" t="s">
         <v>29</v>
       </c>
@@ -666,7 +708,10 @@
         <v>77767</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2023</v>
+      </c>
       <c r="B15" t="s">
         <v>17</v>
       </c>
@@ -674,7 +719,10 @@
         <v>41778</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2023</v>
+      </c>
       <c r="B16" t="s">
         <v>20</v>
       </c>
@@ -682,7 +730,10 @@
         <v>26244</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2023</v>
+      </c>
       <c r="B17" t="s">
         <v>23</v>
       </c>
@@ -690,7 +741,10 @@
         <v>21636</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2023</v>
+      </c>
       <c r="B18" t="s">
         <v>22</v>
       </c>
@@ -698,7 +752,10 @@
         <v>22289</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2023</v>
+      </c>
       <c r="B19" t="s">
         <v>30</v>
       </c>
@@ -706,7 +763,10 @@
         <v>63923</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2023</v>
+      </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
@@ -714,7 +774,10 @@
         <v>179690</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2023</v>
+      </c>
       <c r="B21" t="s">
         <v>9</v>
       </c>
@@ -722,7 +785,10 @@
         <v>115550</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2023</v>
+      </c>
       <c r="B22" t="s">
         <v>18</v>
       </c>
@@ -730,7 +796,10 @@
         <v>39552</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2023</v>
+      </c>
       <c r="B23" t="s">
         <v>14</v>
       </c>
@@ -738,7 +807,10 @@
         <v>65658</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2023</v>
+      </c>
       <c r="B24" t="s">
         <v>8</v>
       </c>
@@ -746,7 +818,10 @@
         <v>116622</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2023</v>
+      </c>
       <c r="B25" t="s">
         <v>10</v>
       </c>
@@ -754,7 +829,10 @@
         <v>98612</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2023</v>
+      </c>
       <c r="B26" t="s">
         <v>2</v>
       </c>
@@ -762,7 +840,10 @@
         <v>218840</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2023</v>
+      </c>
       <c r="B27" t="s">
         <v>19</v>
       </c>
@@ -770,7 +851,10 @@
         <v>36042</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2023</v>
+      </c>
       <c r="B28" t="s">
         <v>25</v>
       </c>
@@ -778,7 +862,10 @@
         <v>5131</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2023</v>
+      </c>
       <c r="B29" t="s">
         <v>13</v>
       </c>
@@ -786,7 +873,10 @@
         <v>72273</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2023</v>
+      </c>
       <c r="B30" t="s">
         <v>12</v>
       </c>
@@ -794,7 +884,10 @@
         <v>82785</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2023</v>
+      </c>
       <c r="B31" s="2" t="s">
         <v>26</v>
       </c>
@@ -802,7 +895,10 @@
         <v>101866</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2023</v>
+      </c>
       <c r="B32" t="s">
         <v>15</v>
       </c>
@@ -810,7 +906,10 @@
         <v>44354</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2023</v>
+      </c>
       <c r="B33" t="s">
         <v>4</v>
       </c>
@@ -818,7 +917,10 @@
         <v>193367</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2023</v>
+      </c>
       <c r="B34" t="s">
         <v>11</v>
       </c>
@@ -826,7 +928,10 @@
         <v>96871</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2023</v>
+      </c>
       <c r="B35" t="s">
         <v>34</v>
       </c>
